--- a/medicine/Enfance/Frédérick_Mansot/Frédérick_Mansot.xlsx
+++ b/medicine/Enfance/Frédérick_Mansot/Frédérick_Mansot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9rick_Mansot</t>
+          <t>Frédérick_Mansot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frédérick Mansot est un illustrateur français de livre de jeunesse, né en 1967 au Puy-en-Velay[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frédérick Mansot est un illustrateur français de livre de jeunesse, né en 1967 au Puy-en-Velay.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9rick_Mansot</t>
+          <t>Frédérick_Mansot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frédérick Mansot a été formé à l'École Émile-Cohl de Lyon, qu'il a ensuite intégré en tant qu'enseignant[1]. Il travaille avec plusieurs techniques : aquarelle, encre de Chine, acrylique sur papier, mais aussi dessin par ordinateur[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frédérick Mansot a été formé à l'École Émile-Cohl de Lyon, qu'il a ensuite intégré en tant qu'enseignant. Il travaille avec plusieurs techniques : aquarelle, encre de Chine, acrylique sur papier, mais aussi dessin par ordinateur.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9rick_Mansot</t>
+          <t>Frédérick_Mansot</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +556,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Secret d'un prénom, textes de Lisa Bresner, Actes Sud Jeunesse, collection « Les Grands Livres », 2003 (réédition, Actes Sud Junior, collection « Encore une fois », 2013).
 Le Renard et l'Enfant, textes de Luc Jacquet, Hachette Jeunesse, 2007 (ouvrage réalisé en parallèle du film Le Renard et l'Enfant).
 L'Homme qui dessinait des arbres, Actes Sud, 2013 (ouvrage réalisé en parallèle du film Il était une forêt).
-Amin sans-papiers[3], écrit par Sylvie Baussier, éd. Élan vert, coll. Poil à gratter, 2007  (ISBN 978-2-84455-099-6)</t>
+Amin sans-papiers, écrit par Sylvie Baussier, éd. Élan vert, coll. Poil à gratter, 2007  (ISBN 978-2-84455-099-6)</t>
         </is>
       </c>
     </row>
